--- a/ece2cmor3/resources/miscellaneous-data-requests/knmi23-dutch-scenarios/cmvme_CMIP_ssp245_1_1-knmi23-plev36.xlsx
+++ b/ece2cmor3/resources/miscellaneous-data-requests/knmi23-dutch-scenarios/cmvme_CMIP_ssp245_1_1-knmi23-plev36.xlsx
@@ -27,8 +27,9 @@
     <sheet name="Oyr" sheetId="17" state="visible" r:id="rId18"/>
     <sheet name="SIday" sheetId="18" state="visible" r:id="rId19"/>
     <sheet name="SImon" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="day" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="fx" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="Eday" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="day" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="fx" sheetId="22" state="visible" r:id="rId23"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1625,6 +1626,128 @@
 </comments>
 </file>
 
+<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Lowest priority value set in request for this variable for this experiment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">NetCDF Global Attribute</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Name of variable in file</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">CMOR directive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">CMOR name, unique within table</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">CMOR variable identifier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">MIP variable identifier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Structure identifier</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
@@ -2480,7 +2603,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10891" uniqueCount="3225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10925" uniqueCount="3225">
   <si>
     <t xml:space="preserve">Notes on tables</t>
   </si>
@@ -12164,7 +12287,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -12194,12 +12317,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -12280,7 +12397,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -33336,7 +33453,7 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36911,10 +37028,138 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF31"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L2" s="0" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AF32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L32" activeCellId="0" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39411,6 +39656,11 @@
       </c>
       <c r="AB31" s="4" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L32" s="0" t="s">
+        <v>1201</v>
       </c>
     </row>
   </sheetData>
@@ -39425,7 +39675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
